--- a/swings/2021-11-22/BINANCE_SPOT_SHIB_USDT.xlsx
+++ b/swings/2021-11-22/BINANCE_SPOT_SHIB_USDT.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N145"/>
+  <dimension ref="A1:O145"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>SymbolDb</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>swing_price</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -551,6 +556,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -605,6 +611,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O3" t="n">
+        <v>4.35e-05</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -657,6 +666,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -711,6 +721,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O5" t="n">
+        <v>4.405e-05</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -765,6 +778,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O6" t="n">
+        <v>4.35e-05</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -817,6 +833,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -871,6 +888,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O8" t="n">
+        <v>4.405e-05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -925,6 +945,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O9" t="n">
+        <v>4.301e-05</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -977,6 +1000,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -1031,6 +1055,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O11" t="n">
+        <v>4.366000000000001e-05</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -1083,6 +1110,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1137,6 +1165,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O13" t="n">
+        <v>4.33e-05</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -1191,6 +1222,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O14" t="n">
+        <v>4.362000000000001e-05</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -1243,6 +1277,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -1297,6 +1332,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O16" t="n">
+        <v>4.302e-05</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1349,6 +1387,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1401,6 +1440,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1455,6 +1495,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O19" t="n">
+        <v>4.39e-05</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1509,6 +1552,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O20" t="n">
+        <v>4.357e-05</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1563,6 +1609,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O21" t="n">
+        <v>4.383000000000001e-05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1615,6 +1664,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1669,6 +1719,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O23" t="n">
+        <v>4.319e-05</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1723,6 +1776,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O24" t="n">
+        <v>4.38e-05</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1775,6 +1831,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1829,6 +1886,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O26" t="n">
+        <v>4.344e-05</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1883,6 +1943,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O27" t="n">
+        <v>4.421000000000001e-05</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1935,6 +1998,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1989,6 +2053,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O29" t="n">
+        <v>4.36e-05</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -2043,6 +2110,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O30" t="n">
+        <v>4.387000000000001e-05</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -2095,6 +2165,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -2147,6 +2218,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -2201,6 +2273,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O33" t="n">
+        <v>4.31e-05</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -2255,6 +2330,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O34" t="n">
+        <v>4.348e-05</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -2309,6 +2387,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O35" t="n">
+        <v>4.321e-05</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -2363,6 +2444,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O36" t="n">
+        <v>4.363e-05</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -2417,6 +2501,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O37" t="n">
+        <v>4.34e-05</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -2469,6 +2556,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -2521,6 +2609,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -2575,6 +2664,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O40" t="n">
+        <v>4.391e-05</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -2629,6 +2721,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O41" t="n">
+        <v>4.372e-05</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -2683,6 +2778,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O42" t="n">
+        <v>4.418e-05</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2737,6 +2835,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O43" t="n">
+        <v>4.375e-05</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -2789,6 +2890,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2843,6 +2945,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O45" t="n">
+        <v>4.529e-05</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2897,6 +3002,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O46" t="n">
+        <v>4.485000000000001e-05</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2951,6 +3059,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O47" t="n">
+        <v>4.554e-05</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -3003,6 +3114,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -3057,6 +3169,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O49" t="n">
+        <v>4.439e-05</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -3109,6 +3224,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -3163,6 +3279,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O51" t="n">
+        <v>4.494e-05</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -3217,6 +3336,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O52" t="n">
+        <v>4.454e-05</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -3271,6 +3393,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O53" t="n">
+        <v>4.510000000000001e-05</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -3323,6 +3448,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -3375,6 +3501,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3429,6 +3556,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O56" t="n">
+        <v>4.453e-05</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -3481,6 +3611,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -3533,6 +3664,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -3587,6 +3719,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O59" t="n">
+        <v>4.533e-05</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -3639,6 +3774,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -3691,6 +3827,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3745,6 +3882,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O62" t="n">
+        <v>4.424e-05</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -3799,6 +3939,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O63" t="n">
+        <v>4.481e-05</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -3851,6 +3994,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -3905,6 +4049,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O65" t="n">
+        <v>4.442e-05</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -3957,6 +4104,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -4009,6 +4157,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -4061,6 +4210,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -4115,6 +4265,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O69" t="n">
+        <v>4.499e-05</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -4167,6 +4320,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -4221,6 +4375,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O71" t="n">
+        <v>4.453e-05</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -4275,6 +4432,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O72" t="n">
+        <v>4.483e-05</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -4327,6 +4487,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -4379,6 +4540,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -4433,6 +4595,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O75" t="n">
+        <v>4.407e-05</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -4485,6 +4650,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4539,6 +4705,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O77" t="n">
+        <v>4.492e-05</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -4591,6 +4760,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -4643,6 +4813,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -4695,6 +4866,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -4749,6 +4921,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O81" t="n">
+        <v>4.35e-05</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -4801,6 +4976,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -4853,6 +5029,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -4905,6 +5082,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -4957,6 +5135,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -5009,6 +5188,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -5063,6 +5243,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O87" t="n">
+        <v>4.626e-05</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -5117,6 +5300,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O88" t="n">
+        <v>4.53e-05</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -5171,6 +5357,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O89" t="n">
+        <v>4.594e-05</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -5223,6 +5412,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -5275,6 +5465,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -5329,6 +5520,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O92" t="n">
+        <v>4.47e-05</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -5383,6 +5577,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O93" t="n">
+        <v>4.508e-05</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -5437,6 +5634,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O94" t="n">
+        <v>4.452e-05</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -5491,6 +5691,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O95" t="n">
+        <v>4.487e-05</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -5545,6 +5748,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O96" t="n">
+        <v>4.455000000000001e-05</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -5599,6 +5805,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O97" t="n">
+        <v>4.478e-05</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -5651,6 +5860,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -5705,6 +5915,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O99" t="n">
+        <v>4.422e-05</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -5757,6 +5970,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -5811,6 +6025,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O101" t="n">
+        <v>4.459000000000001e-05</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -5863,6 +6080,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -5915,6 +6133,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -5969,6 +6188,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O104" t="n">
+        <v>4.411e-05</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -6023,6 +6245,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O105" t="n">
+        <v>4.432e-05</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -6077,6 +6302,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O106" t="n">
+        <v>4.402e-05</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -6131,6 +6359,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O107" t="n">
+        <v>4.43e-05</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -6183,6 +6414,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -6237,6 +6469,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O109" t="n">
+        <v>4.375e-05</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -6291,6 +6526,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O110" t="n">
+        <v>4.42e-05</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -6343,6 +6581,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -6395,6 +6634,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -6447,6 +6687,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -6499,6 +6740,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -6551,6 +6793,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -6605,6 +6848,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O116" t="n">
+        <v>4.331e-05</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -6659,6 +6905,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O117" t="n">
+        <v>4.391e-05</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -6711,6 +6960,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -6763,6 +7013,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -6815,6 +7066,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -6869,6 +7121,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O121" t="n">
+        <v>4.27e-05</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -6921,6 +7176,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -6973,6 +7229,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -7027,6 +7284,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O124" t="n">
+        <v>4.356e-05</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -7079,6 +7339,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -7131,6 +7392,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -7183,6 +7445,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -7237,6 +7500,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O128" t="n">
+        <v>4.275e-05</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -7289,6 +7555,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -7341,6 +7608,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -7395,6 +7663,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O131" t="n">
+        <v>4.358e-05</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -7449,6 +7720,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O132" t="n">
+        <v>4.316e-05</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -7501,6 +7775,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7555,6 +7830,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O134" t="n">
+        <v>4.349000000000001e-05</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -7607,6 +7885,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -7661,6 +7940,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O136" t="n">
+        <v>4.326e-05</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -7713,6 +7995,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -7765,6 +8048,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -7819,6 +8103,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O139" t="n">
+        <v>4.375e-05</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -7871,6 +8158,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -7923,6 +8211,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -7975,6 +8264,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -8027,6 +8317,7 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -8081,6 +8372,9 @@
           <t>SHIBUSDT</t>
         </is>
       </c>
+      <c r="O144" t="n">
+        <v>4.301e-05</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -8134,6 +8428,9 @@
         <is>
           <t>SHIBUSDT</t>
         </is>
+      </c>
+      <c r="O145" t="n">
+        <v>4.328000000000001e-05</v>
       </c>
     </row>
   </sheetData>
